--- a/resources/tracker/karan-tracker.xlsx
+++ b/resources/tracker/karan-tracker.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kan/dev/projects/mf-reader/resources/tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6D63912-464D-964B-A215-EB06C56444B9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1C3189-096D-F749-B0DC-06FC846B4700}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5960" windowWidth="29160" windowHeight="20380" xr2:uid="{8ABA88F3-91F6-A040-B2C5-E04C8B19257B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="2" xr2:uid="{8ABA88F3-91F6-A040-B2C5-E04C8B19257B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Inflow" sheetId="1" r:id="rId1"/>
+    <sheet name="NAV" sheetId="2" r:id="rId2"/>
+    <sheet name="Questions" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>Aditya Birla Sun Life Equity Advantage Fund - Growth-Regular Plan (1018999018)</t>
   </si>
@@ -97,13 +99,79 @@
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>1018999018          </t>
+  </si>
+  <si>
+    <t>7045174561-Duplicate</t>
+  </si>
+  <si>
+    <t>7524628/53          </t>
+  </si>
+  <si>
+    <t>5013798/08          </t>
+  </si>
+  <si>
+    <t>7045174561          </t>
+  </si>
+  <si>
+    <t>3775446/61          </t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Equity Advantage Fund - Growth-Regular Plan </t>
+  </si>
+  <si>
+    <t>ICICI Prudential Equity &amp; Debt Fund-Direct Plan-Growth            </t>
+  </si>
+  <si>
+    <t>ICICI Prudential Bluechip Fund - Direct Plan - Growth             </t>
+  </si>
+  <si>
+    <t>L&amp;T Midcap Fund Direct Plan-Growth                                </t>
+  </si>
+  <si>
+    <t>Mirae Asset India Equity Fund-Direct Plan-Growth                  </t>
+  </si>
+  <si>
+    <t>Kotak Standard Multicap Fund-Direct Plan-Growth                   </t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Folio Number</t>
+  </si>
+  <si>
+    <t>Do any of the funds have have a pre-existing balance (i.e balance before october-2018)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do we model transactions from ICCL to to the </t>
+  </si>
+  <si>
+    <t>Why is the number of units not increasing monotnously</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
+    <t>MUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIGHER EXPOSURE TO LARGE CAPS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,14 +180,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -152,15 +227,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,26 +553,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8679842B-C54E-DD4E-ACD8-2BA44BFB4928}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A22" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="44.33203125" customWidth="1"/>
     <col min="3" max="3" width="38.5" customWidth="1"/>
+    <col min="5" max="5" width="75.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -504,8 +583,11 @@
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43179</v>
       </c>
@@ -516,7 +598,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43210</v>
       </c>
@@ -527,7 +609,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43241</v>
       </c>
@@ -538,7 +620,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43271</v>
       </c>
@@ -549,7 +631,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43301</v>
       </c>
@@ -560,7 +642,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43332</v>
       </c>
@@ -571,7 +653,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43363</v>
       </c>
@@ -582,7 +664,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43393</v>
       </c>
@@ -593,7 +675,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43424</v>
       </c>
@@ -604,7 +686,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43454</v>
       </c>
@@ -615,25 +697,25 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43419</v>
       </c>
@@ -644,7 +726,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43451</v>
       </c>
@@ -655,25 +737,28 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43416</v>
       </c>
@@ -684,7 +769,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43444</v>
       </c>
@@ -695,25 +780,28 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43419</v>
       </c>
@@ -724,7 +812,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43451</v>
       </c>
@@ -735,14 +823,23 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-    </row>
-    <row r="42" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="D41" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>21</v>
       </c>
@@ -753,7 +850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43425</v>
       </c>
@@ -764,7 +861,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43455</v>
       </c>
@@ -775,25 +872,31 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+    <row r="49" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-    </row>
-    <row r="50" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43434</v>
       </c>
@@ -804,7 +907,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43465</v>
       </c>
@@ -815,6 +918,282 @@
         <v>20000</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BFD3CD-1C85-4744-9E28-C9EE5A37DDA6}">
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="51.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="8">
+        <v>43344</v>
+      </c>
+      <c r="D1" s="8">
+        <v>43374</v>
+      </c>
+      <c r="E1" s="8">
+        <v>43405</v>
+      </c>
+      <c r="F1" s="8">
+        <v>43435</v>
+      </c>
+      <c r="G1" s="8">
+        <v>43466</v>
+      </c>
+      <c r="H1" s="8">
+        <v>43497</v>
+      </c>
+      <c r="I1" s="8">
+        <v>43525</v>
+      </c>
+      <c r="J1" s="8">
+        <v>43556</v>
+      </c>
+      <c r="K1" s="8">
+        <v>43586</v>
+      </c>
+      <c r="L1" s="8">
+        <v>43617</v>
+      </c>
+      <c r="M1" s="8">
+        <v>43647</v>
+      </c>
+      <c r="N1" s="8">
+        <v>43678</v>
+      </c>
+      <c r="O1" s="8">
+        <v>43709</v>
+      </c>
+      <c r="P1" s="8">
+        <v>43739</v>
+      </c>
+      <c r="Q1" s="8">
+        <v>43770</v>
+      </c>
+      <c r="R1" s="8">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D651990-6D29-234E-A19F-DD98659C9B2B}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="76.5" customWidth="1"/>
+    <col min="3" max="3" width="65" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="71" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="71" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="71" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="71" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:2" ht="71" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:2" ht="71" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:2" ht="71" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:2" ht="71" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:2" ht="71" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:2" ht="71" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:2" ht="71" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:2" ht="71" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:2" ht="71" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:2" ht="71" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:2" ht="71" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:2" ht="71" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
